--- a/output files/SUMMARY STATISTICS incident reports JOIN da caseload JOIN prod1 JOIN prod2.xlsx
+++ b/output files/SUMMARY STATISTICS incident reports JOIN da caseload JOIN prod1 JOIN prod2.xlsx
@@ -1306,7 +1306,7 @@
         <v>66</v>
       </c>
       <c r="F29">
-        <v>24037</v>
+        <v>23206</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -1326,7 +1326,7 @@
         <v>66</v>
       </c>
       <c r="F30">
-        <v>12858</v>
+        <v>12048</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -1346,7 +1346,7 @@
         <v>67</v>
       </c>
       <c r="F31">
-        <v>14125</v>
+        <v>13302</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -1354,7 +1354,7 @@
         <v>42</v>
       </c>
       <c r="B32">
-        <v>0.8366715518645171</v>
+        <v>0.8092818759159746</v>
       </c>
       <c r="C32" t="s">
         <v>49</v>
@@ -1363,7 +1363,7 @@
         <v>13</v>
       </c>
       <c r="G32">
-        <v>120364827.6093594</v>
+        <v>103078826.9229743</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -1381,7 +1381,7 @@
         <v>17748900625</v>
       </c>
       <c r="M32">
-        <v>1437993065.436253</v>
+        <v>1331385835.325045</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>25832</v>
+        <v>24991</v>
       </c>
     </row>
   </sheetData>

--- a/output files/SUMMARY STATISTICS incident reports JOIN da caseload JOIN prod1 JOIN prod2.xlsx
+++ b/output files/SUMMARY STATISTICS incident reports JOIN da caseload JOIN prod1 JOIN prod2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="57">
   <si>
     <t>Fraction missing values</t>
   </si>
@@ -76,9 +76,6 @@
     <t>Court Number</t>
   </si>
   <si>
-    <t>Filing.Date</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
@@ -88,15 +85,6 @@
     <t>Filed.Charge.List</t>
   </si>
   <si>
-    <t>Case.Dispo</t>
-  </si>
-  <si>
-    <t>Case.Dispo.Date</t>
-  </si>
-  <si>
-    <t>Dispo.Description</t>
-  </si>
-  <si>
     <t>Arrest Date</t>
   </si>
   <si>
@@ -112,18 +100,9 @@
     <t>Dispo Date</t>
   </si>
   <si>
-    <t>Case Stage</t>
-  </si>
-  <si>
-    <t>Custody Status</t>
-  </si>
-  <si>
     <t>Outcome</t>
   </si>
   <si>
-    <t>Outcome Sub-Type</t>
-  </si>
-  <si>
     <t>Outcome Sub-Type Description</t>
   </si>
   <si>
@@ -142,9 +121,6 @@
     <t>Supervision Term</t>
   </si>
   <si>
-    <t>Program Term</t>
-  </si>
-  <si>
     <t>Forfeiture</t>
   </si>
   <si>
@@ -160,12 +136,12 @@
     <t>text</t>
   </si>
   <si>
+    <t>Decimal number</t>
+  </si>
+  <si>
     <t>Date + time</t>
   </si>
   <si>
-    <t>Decimal number</t>
-  </si>
-  <si>
     <t>190491050</t>
   </si>
   <si>
@@ -187,22 +163,10 @@
     <t>490.2A/M/0</t>
   </si>
   <si>
-    <t>County Jail w/ Probation Condition</t>
-  </si>
-  <si>
     <t>County Jail W/ Probation Condi</t>
   </si>
   <si>
-    <t xml:space="preserve">                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">I             </t>
-  </si>
-  <si>
     <t xml:space="preserve">GP                  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEG                 </t>
   </si>
   <si>
     <t xml:space="preserve">Negotiated                  </t>
@@ -582,7 +546,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M35"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -634,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D2">
         <v>30705</v>
@@ -669,13 +633,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D3">
         <v>7899</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F3">
         <v>98</v>
@@ -689,13 +653,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D4">
         <v>1259</v>
       </c>
       <c r="E4" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F4">
         <v>110</v>
@@ -709,13 +673,13 @@
         <v>0.0002605438853606904</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D5">
         <v>45</v>
       </c>
       <c r="E5" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F5">
         <v>4822</v>
@@ -729,13 +693,13 @@
         <v>0.0002605438853606904</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D6">
         <v>64</v>
       </c>
       <c r="E6" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F6">
         <v>7490</v>
@@ -749,13 +713,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D7">
         <v>522</v>
       </c>
       <c r="E7" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F7">
         <v>2360</v>
@@ -769,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D8">
         <v>524</v>
@@ -804,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D9">
         <v>8442</v>
@@ -839,28 +803,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D10">
-        <v>841</v>
-      </c>
-      <c r="G10" s="2">
-        <v>43568.08897573684</v>
-      </c>
-      <c r="H10" s="2">
-        <v>43102</v>
-      </c>
-      <c r="I10" s="2">
-        <v>43318</v>
-      </c>
-      <c r="J10" s="2">
-        <v>43517</v>
-      </c>
-      <c r="K10" s="2">
-        <v>43769</v>
-      </c>
-      <c r="L10" s="2">
-        <v>44413</v>
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10">
+        <v>30558</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -871,16 +823,31 @@
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D11">
         <v>2</v>
       </c>
-      <c r="E11" t="s">
-        <v>55</v>
-      </c>
-      <c r="F11">
-        <v>30558</v>
+      <c r="G11">
+        <v>0.05061064973131412</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.219204873992569</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -891,31 +858,16 @@
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D12">
-        <v>2</v>
-      </c>
-      <c r="G12">
-        <v>0.05061064973131412</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>0.219204873992569</v>
+        <v>5560</v>
+      </c>
+      <c r="E12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12">
+        <v>515</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -926,16 +878,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D13">
-        <v>5560</v>
-      </c>
-      <c r="E13" t="s">
-        <v>56</v>
+        <v>1228</v>
+      </c>
+      <c r="E13" s="2">
+        <v>43653</v>
       </c>
       <c r="F13">
-        <v>515</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -946,31 +898,28 @@
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D14">
-        <v>42</v>
-      </c>
-      <c r="G14">
-        <v>152.4707050968898</v>
-      </c>
-      <c r="H14">
-        <v>39</v>
-      </c>
-      <c r="I14">
-        <v>72</v>
-      </c>
-      <c r="J14">
-        <v>190</v>
-      </c>
-      <c r="K14">
-        <v>190</v>
-      </c>
-      <c r="L14">
-        <v>999</v>
-      </c>
-      <c r="M14">
-        <v>80.93955742448804</v>
+        <v>843</v>
+      </c>
+      <c r="G14" s="2">
+        <v>43568.83064647451</v>
+      </c>
+      <c r="H14" s="2">
+        <v>43102</v>
+      </c>
+      <c r="I14" s="2">
+        <v>43318</v>
+      </c>
+      <c r="J14" s="2">
+        <v>43517</v>
+      </c>
+      <c r="K14" s="2">
+        <v>43769</v>
+      </c>
+      <c r="L14" s="2">
+        <v>44413</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -978,31 +927,19 @@
         <v>25</v>
       </c>
       <c r="B15">
-        <v>0.005178309721543722</v>
+        <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D15">
-        <v>952</v>
-      </c>
-      <c r="G15" s="2">
-        <v>43769.64165520853</v>
-      </c>
-      <c r="H15" s="2">
-        <v>43105</v>
-      </c>
-      <c r="I15" s="2">
-        <v>43482</v>
-      </c>
-      <c r="J15" s="2">
-        <v>43724</v>
-      </c>
-      <c r="K15" s="2">
-        <v>44046</v>
-      </c>
-      <c r="L15" s="2">
-        <v>44531</v>
+        <v>41</v>
+      </c>
+      <c r="E15">
+        <v>190</v>
+      </c>
+      <c r="F15">
+        <v>14682</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1010,22 +947,22 @@
         <v>26</v>
       </c>
       <c r="B16">
-        <v>0.005178309721543722</v>
+        <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D16">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E16" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F16">
-        <v>14664</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>14682</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
@@ -1033,19 +970,31 @@
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D17">
-        <v>1228</v>
-      </c>
-      <c r="E17" s="2">
-        <v>43653</v>
-      </c>
-      <c r="F17">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>956</v>
+      </c>
+      <c r="G17" s="2">
+        <v>43771.37267546002</v>
+      </c>
+      <c r="H17" s="2">
+        <v>43105</v>
+      </c>
+      <c r="I17" s="2">
+        <v>43483</v>
+      </c>
+      <c r="J17" s="2">
+        <v>43725</v>
+      </c>
+      <c r="K17" s="2">
+        <v>44048</v>
+      </c>
+      <c r="L17" s="2">
+        <v>44537</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
@@ -1053,31 +1002,19 @@
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D18">
-        <v>843</v>
-      </c>
-      <c r="G18" s="2">
-        <v>43568.83064647451</v>
-      </c>
-      <c r="H18" s="2">
-        <v>43102</v>
-      </c>
-      <c r="I18" s="2">
-        <v>43318</v>
-      </c>
-      <c r="J18" s="2">
-        <v>43517</v>
-      </c>
-      <c r="K18" s="2">
-        <v>43769</v>
-      </c>
-      <c r="L18" s="2">
-        <v>44413</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>9</v>
+      </c>
+      <c r="E18" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18">
+        <v>16136</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
@@ -1085,19 +1022,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D19">
-        <v>41</v>
-      </c>
-      <c r="E19">
-        <v>190</v>
+        <v>14</v>
+      </c>
+      <c r="E19" t="s">
+        <v>51</v>
       </c>
       <c r="F19">
-        <v>14682</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>15334</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="1" t="s">
         <v>30</v>
       </c>
@@ -1105,19 +1042,19 @@
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D20">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="E20" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F20">
-        <v>14682</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="1" t="s">
         <v>31</v>
       </c>
@@ -1125,31 +1062,19 @@
         <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D21">
-        <v>956</v>
-      </c>
-      <c r="G21" s="2">
-        <v>43771.37267546002</v>
-      </c>
-      <c r="H21" s="2">
-        <v>43105</v>
-      </c>
-      <c r="I21" s="2">
-        <v>43483</v>
-      </c>
-      <c r="J21" s="2">
-        <v>43725</v>
-      </c>
-      <c r="K21" s="2">
-        <v>44048</v>
-      </c>
-      <c r="L21" s="2">
-        <v>44537</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>11</v>
+      </c>
+      <c r="E21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21">
+        <v>14839</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="1" t="s">
         <v>32</v>
       </c>
@@ -1157,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D22">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E22" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F22">
-        <v>8004</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>23206</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="1" t="s">
         <v>33</v>
       </c>
@@ -1177,19 +1102,19 @@
         <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D23">
-        <v>3</v>
+        <v>246</v>
       </c>
       <c r="E23" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F23">
-        <v>12242</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>12048</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="1" t="s">
         <v>34</v>
       </c>
@@ -1197,19 +1122,19 @@
         <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D24">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E24" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F24">
-        <v>16136</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>13302</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="1" t="s">
         <v>35</v>
       </c>
@@ -1217,19 +1142,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D25">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E25" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F25">
-        <v>15334</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>30628</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="1" t="s">
         <v>36</v>
       </c>
@@ -1237,207 +1162,32 @@
         <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D26">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E26" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F26">
-        <v>15334</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>16136</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-      <c r="C27" t="s">
-        <v>47</v>
-      </c>
       <c r="D27">
-        <v>4</v>
-      </c>
-      <c r="E27" t="s">
-        <v>64</v>
+        <v>2</v>
+      </c>
+      <c r="E27" t="b">
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>17000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="A28" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="C28" t="s">
-        <v>47</v>
-      </c>
-      <c r="D28">
-        <v>11</v>
-      </c>
-      <c r="E28" t="s">
-        <v>65</v>
-      </c>
-      <c r="F28">
-        <v>14839</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-      <c r="C29" t="s">
-        <v>47</v>
-      </c>
-      <c r="D29">
-        <v>29</v>
-      </c>
-      <c r="E29" t="s">
-        <v>66</v>
-      </c>
-      <c r="F29">
-        <v>23206</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="A30" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="C30" t="s">
-        <v>47</v>
-      </c>
-      <c r="D30">
-        <v>246</v>
-      </c>
-      <c r="E30" t="s">
-        <v>66</v>
-      </c>
-      <c r="F30">
-        <v>12048</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="A31" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-      <c r="C31" t="s">
-        <v>47</v>
-      </c>
-      <c r="D31">
-        <v>22</v>
-      </c>
-      <c r="E31" t="s">
-        <v>67</v>
-      </c>
-      <c r="F31">
-        <v>13302</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="A32" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32">
-        <v>0.8092818759159746</v>
-      </c>
-      <c r="C32" t="s">
-        <v>49</v>
-      </c>
-      <c r="D32">
-        <v>13</v>
-      </c>
-      <c r="G32">
-        <v>103078826.9229743</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32">
-        <v>17748900625</v>
-      </c>
-      <c r="M32">
-        <v>1331385835.325045</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-      <c r="C33" t="s">
-        <v>47</v>
-      </c>
-      <c r="D33">
-        <v>21</v>
-      </c>
-      <c r="E33" t="s">
-        <v>67</v>
-      </c>
-      <c r="F33">
-        <v>30628</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B34">
-        <v>0</v>
-      </c>
-      <c r="C34" t="s">
-        <v>47</v>
-      </c>
-      <c r="D34">
-        <v>9</v>
-      </c>
-      <c r="E34" t="s">
-        <v>68</v>
-      </c>
-      <c r="F34">
-        <v>16136</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-      <c r="D35">
-        <v>2</v>
-      </c>
-      <c r="E35" t="b">
-        <v>0</v>
-      </c>
-      <c r="F35">
         <v>24991</v>
       </c>
     </row>
